--- a/config_1.12/shoping_config_xiaomi.xlsx
+++ b/config_1.12/shoping_config_xiaomi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="1943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="1974">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8301,6 +8301,127 @@
   </si>
   <si>
     <t>9800000,30000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50200000,10,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100000,6,5,</t>
+  </si>
+  <si>
+    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,4,3,</t>
+  </si>
+  <si>
+    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,2,3,</t>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000万金币","太阳*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,4,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","太阳*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","水滴*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,8,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8525,7 +8646,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8768,6 +8889,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11198,13 +11325,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN511"/>
+  <dimension ref="A1:AN519"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="U489" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A509" sqref="A509:XFD511"/>
+      <selection pane="bottomRight" activeCell="A512" sqref="A512:XFD519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44043,6 +44170,550 @@
         <v>1</v>
       </c>
     </row>
+    <row r="512" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="78">
+        <v>511</v>
+      </c>
+      <c r="B512" s="78">
+        <v>10428</v>
+      </c>
+      <c r="F512" s="78">
+        <v>1</v>
+      </c>
+      <c r="G512" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I512" s="78" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J512" s="78" t="s">
+        <v>1945</v>
+      </c>
+      <c r="L512" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M512" s="78">
+        <v>0</v>
+      </c>
+      <c r="N512" s="78">
+        <v>0</v>
+      </c>
+      <c r="O512" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="P512" s="78">
+        <v>49800</v>
+      </c>
+      <c r="Q512" s="78" t="s">
+        <v>1947</v>
+      </c>
+      <c r="R512" s="79" t="s">
+        <v>1948</v>
+      </c>
+      <c r="W512" s="78" t="s">
+        <v>1949</v>
+      </c>
+      <c r="X512" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y512" s="78">
+        <v>1610407800</v>
+      </c>
+      <c r="Z512" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA512" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH512" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI512" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL512" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM512" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="78">
+        <v>512</v>
+      </c>
+      <c r="B513" s="78">
+        <v>10429</v>
+      </c>
+      <c r="F513" s="78">
+        <v>1</v>
+      </c>
+      <c r="G513" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I513" s="78" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J513" s="78" t="s">
+        <v>1950</v>
+      </c>
+      <c r="L513" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M513" s="78">
+        <v>0</v>
+      </c>
+      <c r="N513" s="78">
+        <v>0</v>
+      </c>
+      <c r="O513" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="P513" s="78">
+        <v>19800</v>
+      </c>
+      <c r="Q513" s="78" t="s">
+        <v>1947</v>
+      </c>
+      <c r="R513" s="79" t="s">
+        <v>1951</v>
+      </c>
+      <c r="W513" s="78" t="s">
+        <v>1949</v>
+      </c>
+      <c r="X513" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y513" s="78">
+        <v>1610407800</v>
+      </c>
+      <c r="Z513" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA513" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH513" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI513" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL513" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM513" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="78">
+        <v>513</v>
+      </c>
+      <c r="B514" s="78">
+        <v>10430</v>
+      </c>
+      <c r="F514" s="78">
+        <v>1</v>
+      </c>
+      <c r="G514" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I514" s="78" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J514" s="78" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L514" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M514" s="78">
+        <v>0</v>
+      </c>
+      <c r="N514" s="78">
+        <v>0</v>
+      </c>
+      <c r="O514" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="P514" s="78">
+        <v>9800</v>
+      </c>
+      <c r="Q514" s="78" t="s">
+        <v>1953</v>
+      </c>
+      <c r="R514" s="79" t="s">
+        <v>1954</v>
+      </c>
+      <c r="W514" s="78" t="s">
+        <v>1949</v>
+      </c>
+      <c r="X514" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y514" s="78">
+        <v>1610407800</v>
+      </c>
+      <c r="Z514" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA514" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH514" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI514" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL514" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM514" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="78">
+        <v>514</v>
+      </c>
+      <c r="B515" s="78">
+        <v>10431</v>
+      </c>
+      <c r="F515" s="78">
+        <v>1</v>
+      </c>
+      <c r="G515" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I515" s="78" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J515" s="78" t="s">
+        <v>1955</v>
+      </c>
+      <c r="L515" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M515" s="78">
+        <v>0</v>
+      </c>
+      <c r="N515" s="78">
+        <v>0</v>
+      </c>
+      <c r="O515" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="P515" s="78">
+        <v>4800</v>
+      </c>
+      <c r="Q515" s="78" t="s">
+        <v>1956</v>
+      </c>
+      <c r="R515" s="79" t="s">
+        <v>1957</v>
+      </c>
+      <c r="W515" s="78" t="s">
+        <v>1949</v>
+      </c>
+      <c r="X515" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y515" s="78">
+        <v>1610407800</v>
+      </c>
+      <c r="Z515" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA515" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH515" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI515" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL515" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM515" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="78">
+        <v>515</v>
+      </c>
+      <c r="B516" s="78">
+        <v>10432</v>
+      </c>
+      <c r="F516" s="78">
+        <v>1</v>
+      </c>
+      <c r="G516" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I516" s="78" t="s">
+        <v>1958</v>
+      </c>
+      <c r="J516" s="78" t="s">
+        <v>1959</v>
+      </c>
+      <c r="L516" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M516" s="78">
+        <v>0</v>
+      </c>
+      <c r="N516" s="78">
+        <v>0</v>
+      </c>
+      <c r="O516" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="P516" s="78">
+        <v>49800</v>
+      </c>
+      <c r="Q516" s="78" t="s">
+        <v>1960</v>
+      </c>
+      <c r="R516" s="79" t="s">
+        <v>1961</v>
+      </c>
+      <c r="W516" s="78" t="s">
+        <v>1949</v>
+      </c>
+      <c r="X516" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y516" s="78">
+        <v>1610407800</v>
+      </c>
+      <c r="Z516" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA516" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH516" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI516" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL516" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM516" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="78">
+        <v>516</v>
+      </c>
+      <c r="B517" s="78">
+        <v>10433</v>
+      </c>
+      <c r="F517" s="78">
+        <v>1</v>
+      </c>
+      <c r="G517" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I517" s="78" t="s">
+        <v>1958</v>
+      </c>
+      <c r="J517" s="78" t="s">
+        <v>1962</v>
+      </c>
+      <c r="L517" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M517" s="78">
+        <v>0</v>
+      </c>
+      <c r="N517" s="78">
+        <v>0</v>
+      </c>
+      <c r="O517" s="78" t="s">
+        <v>1963</v>
+      </c>
+      <c r="P517" s="78">
+        <v>19800</v>
+      </c>
+      <c r="Q517" s="78" t="s">
+        <v>1960</v>
+      </c>
+      <c r="R517" s="79" t="s">
+        <v>1964</v>
+      </c>
+      <c r="W517" s="78" t="s">
+        <v>1949</v>
+      </c>
+      <c r="X517" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y517" s="78">
+        <v>1610407800</v>
+      </c>
+      <c r="Z517" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA517" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH517" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI517" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL517" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM517" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="78">
+        <v>517</v>
+      </c>
+      <c r="B518" s="78">
+        <v>10434</v>
+      </c>
+      <c r="F518" s="78">
+        <v>1</v>
+      </c>
+      <c r="G518" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I518" s="78" t="s">
+        <v>1958</v>
+      </c>
+      <c r="J518" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="L518" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M518" s="78">
+        <v>0</v>
+      </c>
+      <c r="N518" s="78">
+        <v>0</v>
+      </c>
+      <c r="O518" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="P518" s="78">
+        <v>9800</v>
+      </c>
+      <c r="Q518" s="78" t="s">
+        <v>1966</v>
+      </c>
+      <c r="R518" s="79" t="s">
+        <v>1967</v>
+      </c>
+      <c r="W518" s="78" t="s">
+        <v>1949</v>
+      </c>
+      <c r="X518" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y518" s="78">
+        <v>1610407800</v>
+      </c>
+      <c r="Z518" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA518" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH518" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI518" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL518" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM518" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="78">
+        <v>518</v>
+      </c>
+      <c r="B519" s="78">
+        <v>10435</v>
+      </c>
+      <c r="F519" s="78">
+        <v>1</v>
+      </c>
+      <c r="G519" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I519" s="78" t="s">
+        <v>1958</v>
+      </c>
+      <c r="J519" s="78" t="s">
+        <v>1968</v>
+      </c>
+      <c r="L519" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M519" s="78">
+        <v>0</v>
+      </c>
+      <c r="N519" s="78">
+        <v>0</v>
+      </c>
+      <c r="O519" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="P519" s="78">
+        <v>4800</v>
+      </c>
+      <c r="Q519" s="78" t="s">
+        <v>1969</v>
+      </c>
+      <c r="R519" s="79" t="s">
+        <v>1970</v>
+      </c>
+      <c r="W519" s="78" t="s">
+        <v>1971</v>
+      </c>
+      <c r="X519" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y519" s="78">
+        <v>1610407800</v>
+      </c>
+      <c r="Z519" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA519" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH519" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI519" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL519" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM519" s="78">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44053,10 +44724,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -45021,6 +45692,34 @@
         <v>1</v>
       </c>
       <c r="D68" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="81">
+        <v>68</v>
+      </c>
+      <c r="B69" s="82" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C69" s="81">
+        <v>1</v>
+      </c>
+      <c r="D69" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="81">
+        <v>69</v>
+      </c>
+      <c r="B70" s="82" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C70" s="81">
+        <v>1</v>
+      </c>
+      <c r="D70" s="81">
         <v>0</v>
       </c>
     </row>

--- a/config_1.12/shoping_config_xiaomi.xlsx
+++ b/config_1.12/shoping_config_xiaomi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -11327,11 +11327,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN519"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="U489" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A512" sqref="A512:XFD519"/>
+      <selection pane="bottomRight" activeCell="Y512" sqref="Y512:Y519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44217,7 +44217,7 @@
         <v>99999999</v>
       </c>
       <c r="Y512" s="78">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z512" s="78">
         <v>1610985599</v>
@@ -44285,7 +44285,7 @@
         <v>99999999</v>
       </c>
       <c r="Y513" s="78">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z513" s="78">
         <v>1610985599</v>
@@ -44353,7 +44353,7 @@
         <v>99999999</v>
       </c>
       <c r="Y514" s="78">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z514" s="78">
         <v>1610985599</v>
@@ -44421,7 +44421,7 @@
         <v>99999999</v>
       </c>
       <c r="Y515" s="78">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z515" s="78">
         <v>1610985599</v>
@@ -44489,7 +44489,7 @@
         <v>99999999</v>
       </c>
       <c r="Y516" s="78">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z516" s="78">
         <v>1610985599</v>
@@ -44557,7 +44557,7 @@
         <v>99999999</v>
       </c>
       <c r="Y517" s="78">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z517" s="78">
         <v>1610985599</v>
@@ -44625,7 +44625,7 @@
         <v>99999999</v>
       </c>
       <c r="Y518" s="78">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z518" s="78">
         <v>1610985599</v>
@@ -44693,7 +44693,7 @@
         <v>99999999</v>
       </c>
       <c r="Y519" s="78">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z519" s="78">
         <v>1610985599</v>
@@ -44726,8 +44726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD70"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_1.12/shoping_config_xiaomi.xlsx
+++ b/config_1.12/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="1974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="1980">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8422,6 +8422,30 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","首次救济金为6万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>604800,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11325,13 +11349,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN519"/>
+  <dimension ref="A1:AN520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U489" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U519" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y512" sqref="Y512:Y519"/>
+      <selection pane="bottomRight" activeCell="A520" sqref="A520:XFD520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44714,6 +44738,65 @@
         <v>1</v>
       </c>
     </row>
+    <row r="520" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>519</v>
+      </c>
+      <c r="B520" s="5">
+        <v>10436</v>
+      </c>
+      <c r="F520" s="5">
+        <v>1</v>
+      </c>
+      <c r="G520" s="5" t="s">
+        <v>1974</v>
+      </c>
+      <c r="I520" s="5" t="s">
+        <v>1975</v>
+      </c>
+      <c r="J520" s="5" t="s">
+        <v>1976</v>
+      </c>
+      <c r="L520" s="5">
+        <v>-23</v>
+      </c>
+      <c r="M520" s="5">
+        <v>1</v>
+      </c>
+      <c r="N520" s="5">
+        <v>0</v>
+      </c>
+      <c r="O520" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P520" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q520" s="5" t="s">
+        <v>1977</v>
+      </c>
+      <c r="R520" s="10" t="s">
+        <v>1978</v>
+      </c>
+      <c r="W520" s="5" t="s">
+        <v>1979</v>
+      </c>
+      <c r="X520" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="Y520" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z520" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AH520" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI520" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_1.12/shoping_config_xiaomi.xlsx
+++ b/config_1.12/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="1980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="1981">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8437,11 +8437,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,</t>
+    <t>"jing_bi","obj_week_card",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{valid_time=604800},</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -44778,8 +44782,11 @@
       <c r="R520" s="10" t="s">
         <v>1978</v>
       </c>
+      <c r="S520" s="5" t="s">
+        <v>1979</v>
+      </c>
       <c r="W520" s="5" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="X520" s="5">
         <v>99999999</v>
